--- a/results/pvalue_SIDER_all_DGI_AUPRperdrug.xlsx
+++ b/results/pvalue_SIDER_all_DGI_AUPRperdrug.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23.156</t>
+          <t>15.738</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>23.446</t>
+          <t>15.937</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.933</t>
+          <t>14.459</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17.005</t>
+          <t>9.984</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>164.188</t>
+          <t>167.523</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>169.719</t>
+          <t>174.09</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>169.425</t>
+          <t>171.247</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>115.067</t>
+          <t>121.296</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>31.558</t>
+          <t>34.216</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
